--- a/biology/Zoologie/Cybaeopsis_hoplomachus/Cybaeopsis_hoplomachus.xlsx
+++ b/biology/Zoologie/Cybaeopsis_hoplomachus/Cybaeopsis_hoplomachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeopsis hoplomachus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeopsis hoplomachus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Caroline du Nord aux États-Unis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Caroline du Nord aux États-Unis,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,5 mm et la femelle paratype 3 mm[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,5 mm et la femelle paratype 3 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius hoplomachus par Bishop et Crosby en 1926. Elle est placée dans le genre Callioplus par Bishop et Crosby en 1935[4] puis dans le genre Cybaeopsis par Yaginuma en 1987[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius hoplomachus par Bishop et Crosby en 1926. Elle est placée dans le genre Callioplus par Bishop et Crosby en 1935 puis dans le genre Cybaeopsis par Yaginuma en 1987.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bishop &amp; Crosby, 1926 : « Notes on the spiders of the southeastern United States with descriptions of new species. » Journal of the Elisha Mitchell Scientific Society, vol. 41, no 3/4, p. 163-212 (texte intégral).</t>
         </is>
